--- a/SprintPracto/Practo/target/test-classes/Excel/PractoTestSc1.xlsx
+++ b/SprintPracto/Practo/target/test-classes/Excel/PractoTestSc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\training\java\SprintPracto\Practo\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D82A2F-8207-4F1E-99C8-0B0DBDBECE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3CB2A-87BB-424D-A7B5-1796C33C2B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{39B25D9C-F411-4BCB-9A7E-8020505F5A5B}"/>
+    <workbookView xWindow="4800" yWindow="1460" windowWidth="14400" windowHeight="9820" xr2:uid="{39B25D9C-F411-4BCB-9A7E-8020505F5A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>HDL</t>
   </si>
@@ -51,13 +51,16 @@
     <t>TestName</t>
   </si>
   <si>
-    <t>Add1</t>
-  </si>
-  <si>
-    <t>Add2</t>
-  </si>
-  <si>
-    <t>AddElements</t>
+    <t>SearchCity</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
 </sst>
 </file>
@@ -434,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC7E628-4130-4CFA-AFB5-5FBB19F150F3}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED2259-B71D-4F59-9E5D-B848330CDF67}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,17 +489,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
